--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Pf4-Fgfr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Pf4-Fgfr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Fgfr2</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>4.326658</v>
+      </c>
+      <c r="H2">
+        <v>8.653316</v>
+      </c>
+      <c r="I2">
+        <v>0.007049713162306648</v>
+      </c>
+      <c r="J2">
+        <v>0.004721073584627792</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
         <v>0.5</v>
       </c>
-      <c r="G2">
-        <v>0.197427</v>
-      </c>
-      <c r="H2">
-        <v>0.394854</v>
-      </c>
-      <c r="I2">
-        <v>0.000452391028090995</v>
-      </c>
-      <c r="J2">
-        <v>0.0003016395050625994</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
       <c r="M2">
-        <v>0.8651055000000001</v>
+        <v>0.09207700000000001</v>
       </c>
       <c r="N2">
-        <v>1.730211</v>
+        <v>0.184154</v>
       </c>
       <c r="O2">
-        <v>0.418762651604452</v>
+        <v>0.0789959771480734</v>
       </c>
       <c r="P2">
-        <v>0.3305860461170526</v>
+        <v>0.05545240531440215</v>
       </c>
       <c r="Q2">
-        <v>0.1707951835485</v>
+        <v>0.398385688666</v>
       </c>
       <c r="R2">
-        <v>0.683180734194</v>
+        <v>1.593542754664</v>
       </c>
       <c r="S2">
-        <v>0.0001894444664854492</v>
+        <v>0.0005568989798700482</v>
       </c>
       <c r="T2">
-        <v>9.97178113313494E-05</v>
+        <v>0.0002617948859338978</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.197427</v>
+        <v>4.326658</v>
       </c>
       <c r="H3">
-        <v>0.394854</v>
+        <v>8.653316</v>
       </c>
       <c r="I3">
-        <v>0.000452391028090995</v>
+        <v>0.007049713162306648</v>
       </c>
       <c r="J3">
-        <v>0.0003016395050625994</v>
+        <v>0.004721073584627792</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>2.969268</v>
       </c>
       <c r="O3">
-        <v>0.4791009269984018</v>
+        <v>0.8491451975864605</v>
       </c>
       <c r="P3">
-        <v>0.5673288217343945</v>
+        <v>0.8941052196698643</v>
       </c>
       <c r="Q3">
-        <v>0.195404557812</v>
+        <v>4.282335715447999</v>
       </c>
       <c r="R3">
-        <v>1.172427346872</v>
+        <v>25.694014292688</v>
       </c>
       <c r="S3">
-        <v>0.0002167409609241557</v>
+        <v>0.00598623007613475</v>
       </c>
       <c r="T3">
-        <v>0.0001711287849957104</v>
+        <v>0.004221136534461226</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.197427</v>
+        <v>4.326658</v>
       </c>
       <c r="H4">
-        <v>0.394854</v>
+        <v>8.653316</v>
       </c>
       <c r="I4">
-        <v>0.000452391028090995</v>
+        <v>0.007049713162306648</v>
       </c>
       <c r="J4">
-        <v>0.0003016395050625994</v>
+        <v>0.004721073584627792</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,90 +685,90 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.09870899999999999</v>
+        <v>0.083758</v>
       </c>
       <c r="N4">
-        <v>0.197418</v>
+        <v>0.167516</v>
       </c>
       <c r="O4">
-        <v>0.04778104240144566</v>
+        <v>0.07185882526546619</v>
       </c>
       <c r="P4">
-        <v>0.0377200445797283</v>
+        <v>0.05044237501573352</v>
       </c>
       <c r="Q4">
-        <v>0.019487821743</v>
+        <v>0.362392220764</v>
       </c>
       <c r="R4">
-        <v>0.07795128697199999</v>
+        <v>1.449568883056</v>
       </c>
       <c r="S4">
-        <v>2.161571489524943E-05</v>
+        <v>0.0005065841063018505</v>
       </c>
       <c r="T4">
-        <v>1.137785557796843E-05</v>
+        <v>0.0002381421642326684</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>1.250719333333333</v>
+      </c>
+      <c r="H5">
+        <v>3.752158</v>
+      </c>
+      <c r="I5">
+        <v>0.002037880633632562</v>
+      </c>
+      <c r="J5">
+        <v>0.002047101252184694</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
         <v>0.5</v>
       </c>
-      <c r="G5">
-        <v>0.197427</v>
-      </c>
-      <c r="H5">
-        <v>0.394854</v>
-      </c>
-      <c r="I5">
-        <v>0.000452391028090995</v>
-      </c>
-      <c r="J5">
-        <v>0.0003016395050625994</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
       <c r="M5">
-        <v>0.1122906666666667</v>
+        <v>0.09207700000000001</v>
       </c>
       <c r="N5">
-        <v>0.336872</v>
+        <v>0.184154</v>
       </c>
       <c r="O5">
-        <v>0.0543553789957005</v>
+        <v>0.0789959771480734</v>
       </c>
       <c r="P5">
-        <v>0.06436508756882468</v>
+        <v>0.05545240531440215</v>
       </c>
       <c r="Q5">
-        <v>0.022169209448</v>
+        <v>0.1151624840553333</v>
       </c>
       <c r="R5">
-        <v>0.133015256688</v>
+        <v>0.690974904332</v>
       </c>
       <c r="S5">
-        <v>2.458988578614062E-05</v>
+        <v>0.0001609843719649392</v>
       </c>
       <c r="T5">
-        <v>1.941505315757115E-05</v>
+        <v>0.0001135166883557658</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -797,40 +797,40 @@
         <v>3.752158</v>
       </c>
       <c r="I6">
-        <v>0.002865941360907832</v>
+        <v>0.002037880633632562</v>
       </c>
       <c r="J6">
-        <v>0.002866373601474653</v>
+        <v>0.002047101252184694</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.8651055000000001</v>
+        <v>0.9897559999999999</v>
       </c>
       <c r="N6">
-        <v>1.730211</v>
+        <v>2.969268</v>
       </c>
       <c r="O6">
-        <v>0.418762651604452</v>
+        <v>0.8491451975864605</v>
       </c>
       <c r="P6">
-        <v>0.3305860461170526</v>
+        <v>0.8941052196698643</v>
       </c>
       <c r="Q6">
-        <v>1.082004174223</v>
+        <v>1.237906964482666</v>
       </c>
       <c r="R6">
-        <v>6.492025045338</v>
+        <v>11.141162680344</v>
       </c>
       <c r="S6">
-        <v>0.001200149203636636</v>
+        <v>0.001730456553303543</v>
       </c>
       <c r="T6">
-        <v>0.0009475831156058017</v>
+        <v>0.00183032391477105</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -859,134 +859,134 @@
         <v>3.752158</v>
       </c>
       <c r="I7">
-        <v>0.002865941360907832</v>
+        <v>0.002037880633632562</v>
       </c>
       <c r="J7">
-        <v>0.002866373601474653</v>
+        <v>0.002047101252184694</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9897559999999999</v>
+        <v>0.083758</v>
       </c>
       <c r="N7">
-        <v>2.969268</v>
+        <v>0.167516</v>
       </c>
       <c r="O7">
-        <v>0.4791009269984018</v>
+        <v>0.07185882526546619</v>
       </c>
       <c r="P7">
-        <v>0.5673288217343945</v>
+        <v>0.05044237501573352</v>
       </c>
       <c r="Q7">
-        <v>1.237906964482666</v>
+        <v>0.1047577499213333</v>
       </c>
       <c r="R7">
-        <v>11.141162680344</v>
+        <v>0.628546499528</v>
       </c>
       <c r="S7">
-        <v>0.001373075162734003</v>
+        <v>0.0001464397083640798</v>
       </c>
       <c r="T7">
-        <v>0.001626176357975187</v>
+        <v>0.000103260649057878</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>1.250719333333333</v>
+        <v>109.0779523333333</v>
       </c>
       <c r="H8">
-        <v>3.752158</v>
+        <v>327.233857</v>
       </c>
       <c r="I8">
-        <v>0.002865941360907832</v>
+        <v>0.17772800075295</v>
       </c>
       <c r="J8">
-        <v>0.002866373601474653</v>
+        <v>0.1785321509440506</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.09870899999999999</v>
+        <v>0.09207700000000001</v>
       </c>
       <c r="N8">
-        <v>0.197418</v>
+        <v>0.184154</v>
       </c>
       <c r="O8">
-        <v>0.04778104240144566</v>
+        <v>0.0789959771480734</v>
       </c>
       <c r="P8">
-        <v>0.0377200445797283</v>
+        <v>0.05545240531440215</v>
       </c>
       <c r="Q8">
-        <v>0.123457254674</v>
+        <v>10.04357061699633</v>
       </c>
       <c r="R8">
-        <v>0.7407435280439999</v>
+        <v>60.261423701978</v>
       </c>
       <c r="S8">
-        <v>0.000136937665685594</v>
+        <v>0.01403979708605281</v>
       </c>
       <c r="T8">
-        <v>0.0001081197400297803</v>
+        <v>0.009900037195801518</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>1.250719333333333</v>
+        <v>109.0779523333333</v>
       </c>
       <c r="H9">
-        <v>3.752158</v>
+        <v>327.233857</v>
       </c>
       <c r="I9">
-        <v>0.002865941360907832</v>
+        <v>0.17772800075295</v>
       </c>
       <c r="J9">
-        <v>0.002866373601474653</v>
+        <v>0.1785321509440506</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1122906666666667</v>
+        <v>0.9897559999999999</v>
       </c>
       <c r="N9">
-        <v>0.336872</v>
+        <v>2.969268</v>
       </c>
       <c r="O9">
-        <v>0.0543553789957005</v>
+        <v>0.8491451975864605</v>
       </c>
       <c r="P9">
-        <v>0.06436508756882468</v>
+        <v>0.8941052196698643</v>
       </c>
       <c r="Q9">
-        <v>0.1404441077528889</v>
+        <v>107.9605577896306</v>
       </c>
       <c r="R9">
-        <v>1.263996969776</v>
+        <v>971.6450201066758</v>
       </c>
       <c r="S9">
-        <v>0.0001557793288515989</v>
+        <v>0.1509168783160103</v>
       </c>
       <c r="T9">
-        <v>0.0001844943878638834</v>
+        <v>0.1596265280379638</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>262.0776013333333</v>
+        <v>109.0779523333333</v>
       </c>
       <c r="H10">
-        <v>786.232804</v>
+        <v>327.233857</v>
       </c>
       <c r="I10">
-        <v>0.6005336428492992</v>
+        <v>0.17772800075295</v>
       </c>
       <c r="J10">
-        <v>0.6006242151847004</v>
+        <v>0.1785321509440506</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,225 +1057,225 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.8651055000000001</v>
+        <v>0.083758</v>
       </c>
       <c r="N10">
-        <v>1.730211</v>
+        <v>0.167516</v>
       </c>
       <c r="O10">
-        <v>0.418762651604452</v>
+        <v>0.07185882526546619</v>
       </c>
       <c r="P10">
-        <v>0.3305860461170526</v>
+        <v>0.05044237501573352</v>
       </c>
       <c r="Q10">
-        <v>226.724774340274</v>
+        <v>9.136151131535334</v>
       </c>
       <c r="R10">
-        <v>1360.348646041644</v>
+        <v>54.816906789212</v>
       </c>
       <c r="S10">
-        <v>0.2514810606572535</v>
+        <v>0.01277132535088688</v>
       </c>
       <c r="T10">
-        <v>0.1985579845000679</v>
+        <v>0.009005585710285344</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G11">
-        <v>262.0776013333333</v>
+        <v>3.9665605</v>
       </c>
       <c r="H11">
-        <v>786.232804</v>
+        <v>7.933121</v>
       </c>
       <c r="I11">
-        <v>0.6005336428492992</v>
+        <v>0.006462982229225337</v>
       </c>
       <c r="J11">
-        <v>0.6006242151847004</v>
+        <v>0.004328149809478357</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M11">
-        <v>0.9897559999999999</v>
+        <v>0.09207700000000001</v>
       </c>
       <c r="N11">
-        <v>2.969268</v>
+        <v>0.184154</v>
       </c>
       <c r="O11">
-        <v>0.4791009269984018</v>
+        <v>0.0789959771480734</v>
       </c>
       <c r="P11">
-        <v>0.5673288217343945</v>
+        <v>0.05545240531440215</v>
       </c>
       <c r="Q11">
-        <v>259.3928783852746</v>
+        <v>0.3652289911585</v>
       </c>
       <c r="R11">
-        <v>2334.535905467472</v>
+        <v>1.460915964634</v>
       </c>
       <c r="S11">
-        <v>0.2877162249828264</v>
+        <v>0.0005105495964882891</v>
       </c>
       <c r="T11">
-        <v>0.3407514283058815</v>
+        <v>0.0002400063174966463</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.5</v>
+      </c>
+      <c r="G12">
+        <v>3.9665605</v>
+      </c>
+      <c r="H12">
+        <v>7.933121</v>
+      </c>
+      <c r="I12">
+        <v>0.006462982229225337</v>
+      </c>
+      <c r="J12">
+        <v>0.004328149809478357</v>
+      </c>
+      <c r="K12">
         <v>3</v>
       </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>262.0776013333333</v>
-      </c>
-      <c r="H12">
-        <v>786.232804</v>
-      </c>
-      <c r="I12">
-        <v>0.6005336428492992</v>
-      </c>
-      <c r="J12">
-        <v>0.6006242151847004</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.09870899999999999</v>
+        <v>0.9897559999999999</v>
       </c>
       <c r="N12">
-        <v>0.197418</v>
+        <v>2.969268</v>
       </c>
       <c r="O12">
-        <v>0.04778104240144566</v>
+        <v>0.8491451975864605</v>
       </c>
       <c r="P12">
-        <v>0.0377200445797283</v>
+        <v>0.8941052196698643</v>
       </c>
       <c r="Q12">
-        <v>25.869417950012</v>
+        <v>3.925927054238</v>
       </c>
       <c r="R12">
-        <v>155.216507700072</v>
+        <v>23.555562325428</v>
       </c>
       <c r="S12">
-        <v>0.02869412345247699</v>
+        <v>0.005488010322033331</v>
       </c>
       <c r="T12">
-        <v>0.02265557217243122</v>
+        <v>0.003869821336167728</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
         <v>23</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G13">
-        <v>262.0776013333333</v>
+        <v>3.9665605</v>
       </c>
       <c r="H13">
-        <v>786.232804</v>
+        <v>7.933121</v>
       </c>
       <c r="I13">
-        <v>0.6005336428492992</v>
+        <v>0.006462982229225337</v>
       </c>
       <c r="J13">
-        <v>0.6006242151847004</v>
+        <v>0.004328149809478357</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.1122906666666667</v>
+        <v>0.083758</v>
       </c>
       <c r="N13">
-        <v>0.336872</v>
+        <v>0.167516</v>
       </c>
       <c r="O13">
-        <v>0.0543553789957005</v>
+        <v>0.07185882526546619</v>
       </c>
       <c r="P13">
-        <v>0.06436508756882468</v>
+        <v>0.05044237501573352</v>
       </c>
       <c r="Q13">
-        <v>29.42886857212089</v>
+        <v>0.332231174359</v>
       </c>
       <c r="R13">
-        <v>264.859817149088</v>
+        <v>1.328924697436</v>
       </c>
       <c r="S13">
-        <v>0.03264223375674231</v>
+        <v>0.0004644223107037166</v>
       </c>
       <c r="T13">
-        <v>0.03865923020631985</v>
+        <v>0.0002183221558139828</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,57 +1287,57 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.770183</v>
+        <v>65.86335866666667</v>
       </c>
       <c r="H14">
-        <v>5.310549</v>
+        <v>197.590076</v>
       </c>
       <c r="I14">
-        <v>0.004056258299418022</v>
+        <v>0.1073155739386204</v>
       </c>
       <c r="J14">
-        <v>0.004056870063290943</v>
+        <v>0.1078011352397391</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M14">
-        <v>0.8651055000000001</v>
+        <v>0.09207700000000001</v>
       </c>
       <c r="N14">
-        <v>1.730211</v>
+        <v>0.184154</v>
       </c>
       <c r="O14">
-        <v>0.418762651604452</v>
+        <v>0.0789959771480734</v>
       </c>
       <c r="P14">
-        <v>0.3305860461170526</v>
+        <v>0.05545240531440215</v>
       </c>
       <c r="Q14">
-        <v>1.5313950493065</v>
+        <v>6.064500475950667</v>
       </c>
       <c r="R14">
-        <v>9.188370295839</v>
+        <v>36.387002855704</v>
       </c>
       <c r="S14">
-        <v>0.001698609481056856</v>
+        <v>0.008477498626487641</v>
       </c>
       <c r="T14">
-        <v>0.00134114463383399</v>
+        <v>0.005977832244666692</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.770183</v>
+        <v>65.86335866666667</v>
       </c>
       <c r="H15">
-        <v>5.310549</v>
+        <v>197.590076</v>
       </c>
       <c r="I15">
-        <v>0.004056258299418022</v>
+        <v>0.1073155739386204</v>
       </c>
       <c r="J15">
-        <v>0.004056870063290943</v>
+        <v>0.1078011352397391</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,36 +1373,36 @@
         <v>2.969268</v>
       </c>
       <c r="O15">
-        <v>0.4791009269984018</v>
+        <v>0.8491451975864605</v>
       </c>
       <c r="P15">
-        <v>0.5673288217343945</v>
+        <v>0.8941052196698643</v>
       </c>
       <c r="Q15">
-        <v>1.752049245348</v>
+        <v>65.18865442048532</v>
       </c>
       <c r="R15">
-        <v>15.768443208132</v>
+        <v>586.6978897843679</v>
       </c>
       <c r="S15">
-        <v>0.001943357111396135</v>
+        <v>0.09112650423621427</v>
       </c>
       <c r="T15">
-        <v>0.002301579312936389</v>
+        <v>0.09638555770418766</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>27</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.770183</v>
+        <v>65.86335866666667</v>
       </c>
       <c r="H16">
-        <v>5.310549</v>
+        <v>197.590076</v>
       </c>
       <c r="I16">
-        <v>0.004056258299418022</v>
+        <v>0.1073155739386204</v>
       </c>
       <c r="J16">
-        <v>0.004056870063290943</v>
+        <v>0.1078011352397391</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1429,42 +1429,42 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.09870899999999999</v>
+        <v>0.083758</v>
       </c>
       <c r="N16">
-        <v>0.197418</v>
+        <v>0.167516</v>
       </c>
       <c r="O16">
-        <v>0.04778104240144566</v>
+        <v>0.07185882526546619</v>
       </c>
       <c r="P16">
-        <v>0.0377200445797283</v>
+        <v>0.05044237501573352</v>
       </c>
       <c r="Q16">
-        <v>0.174732993747</v>
+        <v>5.516583195202667</v>
       </c>
       <c r="R16">
-        <v>1.048397962482</v>
+        <v>33.099499171216</v>
       </c>
       <c r="S16">
-        <v>0.0001938122497957084</v>
+        <v>0.007711571075918544</v>
       </c>
       <c r="T16">
-        <v>0.0001530253196414995</v>
+        <v>0.005437745290884724</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,60 +1473,60 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.770183</v>
+        <v>429.2500763333333</v>
       </c>
       <c r="H17">
-        <v>5.310549</v>
+        <v>1287.750229</v>
       </c>
       <c r="I17">
-        <v>0.004056258299418022</v>
+        <v>0.6994058492832651</v>
       </c>
       <c r="J17">
-        <v>0.004056870063290943</v>
+        <v>0.7025703891699194</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M17">
-        <v>0.1122906666666667</v>
+        <v>0.09207700000000001</v>
       </c>
       <c r="N17">
-        <v>0.336872</v>
+        <v>0.184154</v>
       </c>
       <c r="O17">
-        <v>0.0543553789957005</v>
+        <v>0.0789959771480734</v>
       </c>
       <c r="P17">
-        <v>0.06436508756882468</v>
+        <v>0.05545240531440215</v>
       </c>
       <c r="Q17">
-        <v>0.198775029192</v>
+        <v>39.52405927854434</v>
       </c>
       <c r="R17">
-        <v>1.788975262728</v>
+        <v>237.144355671266</v>
       </c>
       <c r="S17">
-        <v>0.0002204794571693222</v>
+        <v>0.05525024848720968</v>
       </c>
       <c r="T17">
-        <v>0.0002611207968790648</v>
+        <v>0.03895921798214762</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,60 +1535,60 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>171.1119283333333</v>
+        <v>429.2500763333333</v>
       </c>
       <c r="H18">
-        <v>513.335785</v>
+        <v>1287.750229</v>
       </c>
       <c r="I18">
-        <v>0.3920917664622839</v>
+        <v>0.6994058492832651</v>
       </c>
       <c r="J18">
-        <v>0.3921509016454713</v>
+        <v>0.7025703891699194</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.8651055000000001</v>
+        <v>0.9897559999999999</v>
       </c>
       <c r="N18">
-        <v>1.730211</v>
+        <v>2.969268</v>
       </c>
       <c r="O18">
-        <v>0.418762651604452</v>
+        <v>0.8491451975864605</v>
       </c>
       <c r="P18">
-        <v>0.3305860461170526</v>
+        <v>0.8941052196698643</v>
       </c>
       <c r="Q18">
-        <v>148.0298703167725</v>
+        <v>424.8528385513746</v>
       </c>
       <c r="R18">
-        <v>888.1792219006351</v>
+        <v>3823.675546962371</v>
       </c>
       <c r="S18">
-        <v>0.1641933877960196</v>
+        <v>0.5938971180827644</v>
       </c>
       <c r="T18">
-        <v>0.1296396160562135</v>
+        <v>0.6281718521423129</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,170 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>171.1119283333333</v>
+        <v>429.2500763333333</v>
       </c>
       <c r="H19">
-        <v>513.335785</v>
+        <v>1287.750229</v>
       </c>
       <c r="I19">
-        <v>0.3920917664622839</v>
+        <v>0.6994058492832651</v>
       </c>
       <c r="J19">
-        <v>0.3921509016454713</v>
+        <v>0.7025703891699194</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.9897559999999999</v>
+        <v>0.083758</v>
       </c>
       <c r="N19">
-        <v>2.969268</v>
+        <v>0.167516</v>
       </c>
       <c r="O19">
-        <v>0.4791009269984018</v>
+        <v>0.07185882526546619</v>
       </c>
       <c r="P19">
-        <v>0.5673288217343945</v>
+        <v>0.05044237501573352</v>
       </c>
       <c r="Q19">
-        <v>169.3590577394866</v>
+        <v>35.95312789352733</v>
       </c>
       <c r="R19">
-        <v>1524.23151965538</v>
+        <v>215.718767361164</v>
       </c>
       <c r="S19">
-        <v>0.1878515287805211</v>
+        <v>0.05025848271329113</v>
       </c>
       <c r="T19">
-        <v>0.2224785089726056</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>171.1119283333333</v>
-      </c>
-      <c r="H20">
-        <v>513.335785</v>
-      </c>
-      <c r="I20">
-        <v>0.3920917664622839</v>
-      </c>
-      <c r="J20">
-        <v>0.3921509016454713</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>0.09870899999999999</v>
-      </c>
-      <c r="N20">
-        <v>0.197418</v>
-      </c>
-      <c r="O20">
-        <v>0.04778104240144566</v>
-      </c>
-      <c r="P20">
-        <v>0.0377200445797283</v>
-      </c>
-      <c r="Q20">
-        <v>16.890287333855</v>
-      </c>
-      <c r="R20">
-        <v>101.34172400313</v>
-      </c>
-      <c r="S20">
-        <v>0.01873455331859212</v>
-      </c>
-      <c r="T20">
-        <v>0.01479194949204782</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>171.1119283333333</v>
-      </c>
-      <c r="H21">
-        <v>513.335785</v>
-      </c>
-      <c r="I21">
-        <v>0.3920917664622839</v>
-      </c>
-      <c r="J21">
-        <v>0.3921509016454713</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0.1122906666666667</v>
-      </c>
-      <c r="N21">
-        <v>0.336872</v>
-      </c>
-      <c r="O21">
-        <v>0.0543553789957005</v>
-      </c>
-      <c r="P21">
-        <v>0.06436508756882468</v>
-      </c>
-      <c r="Q21">
-        <v>19.21427250716889</v>
-      </c>
-      <c r="R21">
-        <v>172.92845256452</v>
-      </c>
-      <c r="S21">
-        <v>0.02131229656715113</v>
-      </c>
-      <c r="T21">
-        <v>0.02524082712460431</v>
+        <v>0.03543931904545892</v>
       </c>
     </row>
   </sheetData>
